--- a/regionseng/7/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/7/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -668,7 +668,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.45" customHeight="1">
+    <row r="1" spans="1:17" ht="24" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1">
+    <row r="5" spans="1:17">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -728,7 +728,7 @@
         <v>61057.960899999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1">
+    <row r="6" spans="1:17">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -748,7 +748,7 @@
         <v>80126.483100000012</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1">
+    <row r="7" spans="1:17">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -768,7 +768,7 @@
         <v>5325.2116399999986</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1">
+    <row r="8" spans="1:17">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -788,7 +788,7 @@
         <v>40024.049327500004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1">
+    <row r="9" spans="1:17">
       <c r="A9" s="14">
         <v>2013</v>
       </c>
@@ -808,7 +808,7 @@
         <v>59124.366099999992</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1">
+    <row r="10" spans="1:17">
       <c r="A10" s="14">
         <v>2014</v>
       </c>
@@ -828,7 +828,7 @@
         <v>27951.089699999997</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1">
+    <row r="11" spans="1:17">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -848,7 +848,7 @@
         <v>25701.826300000004</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1">
+    <row r="12" spans="1:17">
       <c r="A12" s="14">
         <v>2016</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1400.7406000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1">
+    <row r="13" spans="1:17">
       <c r="A13" s="14">
         <v>2017</v>
       </c>
@@ -879,16 +879,16 @@
         <v>836.30449999999996</v>
       </c>
       <c r="D13" s="15">
-        <v>2510.8235000000004</v>
+        <v>2510.8235</v>
       </c>
       <c r="E13" s="15">
-        <v>1992.4921000000002</v>
+        <v>1992.4920999999999</v>
       </c>
       <c r="F13" s="16">
-        <v>6160.4598000000015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1">
+        <v>6160.4598000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="14">
         <v>2018</v>
       </c>
@@ -896,16 +896,16 @@
         <v>736.62160000000017</v>
       </c>
       <c r="C14" s="15">
-        <v>928.41499999999996</v>
+        <v>928.41499999999985</v>
       </c>
       <c r="D14" s="15">
         <v>1225.6377</v>
       </c>
       <c r="E14" s="15">
-        <v>-507.27980000000002</v>
+        <v>-507.27979999999997</v>
       </c>
       <c r="F14" s="16">
-        <v>2383.3945000000003</v>
+        <v>2383.3944999999999</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -916,16 +916,16 @@
         <v>401.90440000000001</v>
       </c>
       <c r="C15" s="15">
-        <v>462.82539999999995</v>
+        <v>462.8254</v>
       </c>
       <c r="D15" s="15">
-        <v>708.8415</v>
+        <v>708.84149999999977</v>
       </c>
       <c r="E15" s="15">
-        <v>771.87010000000009</v>
+        <v>771.87009999999975</v>
       </c>
       <c r="F15" s="16">
-        <v>2345.4414000000002</v>
+        <v>2345.4413999999997</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -933,7 +933,7 @@
         <v>2020</v>
       </c>
       <c r="B16" s="15">
-        <v>677.42399999999986</v>
+        <v>677.42400000000009</v>
       </c>
       <c r="C16" s="15">
         <v>761.61080000000004</v>
@@ -945,7 +945,7 @@
         <v>544.0788</v>
       </c>
       <c r="F16" s="16">
-        <v>2781.1526999999996</v>
+        <v>2781.1527000000006</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -953,118 +953,116 @@
         <v>2021</v>
       </c>
       <c r="B17" s="15">
-        <v>-101.83119999999994</v>
+        <v>-101.83119999999997</v>
       </c>
       <c r="C17" s="15">
-        <v>204.77509999999998</v>
+        <v>204.77510000000001</v>
       </c>
       <c r="D17" s="15">
-        <v>379.82870000000003</v>
+        <v>379.82869999999997</v>
       </c>
       <c r="E17" s="15">
-        <v>363.25029999999998</v>
+        <v>363.25029999999992</v>
       </c>
       <c r="F17" s="16">
-        <v>846.02290000000005</v>
+        <v>846.02289999999994</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="15">
+        <v>325.5899</v>
+      </c>
+      <c r="C18" s="15">
+        <v>237.56419999999994</v>
+      </c>
+      <c r="D18" s="15">
+        <v>255.59880000000001</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-50.90239999999995</v>
+      </c>
+      <c r="F18" s="16">
+        <v>767.85050000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="15">
+        <v>865.3249999999997</v>
+      </c>
+      <c r="C19" s="15">
+        <v>865.63750000000005</v>
+      </c>
+      <c r="D19" s="15">
+        <v>945.16120000000012</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1182.1179999999999</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3858.2416999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15">
-        <v>406.2715</v>
-      </c>
-      <c r="C18" s="15">
-        <v>422.29830000000004</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
-        <v>828.56979999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
+      <c r="B20" s="15">
+        <v>159.70499999999998</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
+        <v>159.70499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1104,7 +1102,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1123,7 +1121,9 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="7"/>
+      <c r="A26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1140,31 +1140,69 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="47.45" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="47.45" customHeight="1">
+      <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/7/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/7/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -658,7 +658,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1015,11 +1015,13 @@
       <c r="B20" s="15">
         <v>159.70499999999998</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15">
+        <v>130.65800000000002</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16">
-        <v>159.70499999999998</v>
+        <v>290.363</v>
       </c>
     </row>
     <row r="21" spans="1:16">
